--- a/src/main/java/onegroup/onekids_excel_v3/uploadExcel/ListKids 2023-06-06_17-09-15.xlsx
+++ b/src/main/java/onegroup/onekids_excel_v3/uploadExcel/ListKids 2023-06-06_17-09-15.xlsx
@@ -12,15 +12,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2392" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2392" uniqueCount="67">
   <si>
     <t>DANH SÁCH HỌC PHÍ CỦA HỌC SINH THỰC TẾ</t>
   </si>
   <si>
-    <t xml:space="preserve">Trường : </t>
-  </si>
-  <si>
-    <t>Tháng : 06/2023</t>
+    <t>Trường : ANH NGỮ ONEKIDS</t>
+  </si>
+  <si>
+    <t>Tháng : 6/2023</t>
   </si>
   <si>
     <t>STT</t>
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t>KINDY 2.1</t>
+  </si>
+  <si>
+    <t>KINDY</t>
   </si>
   <si>
     <t/>
@@ -2032,121 +2035,121 @@
         <v>55</v>
       </c>
       <c r="I6" t="s" s="474">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J6" t="s" s="474">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K6" t="s" s="474">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L6" t="s" s="474">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M6" t="s" s="474">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N6" t="s" s="474">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O6" t="s" s="474">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P6" t="s" s="474">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q6" t="s" s="474">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R6" t="s" s="477">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S6" t="s" s="476">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T6" t="s" s="476">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U6" t="s" s="476">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V6" t="s" s="476">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W6" t="s" s="476">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="X6" t="s" s="476">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y6" t="s" s="476">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Z6" t="s" s="476">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AA6" t="s" s="476">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AB6" t="s" s="476">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AC6" t="s" s="476">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AD6" t="s" s="476">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AE6" t="s" s="476">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AF6" t="s" s="476">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG6" t="s" s="476">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AH6" t="s" s="476">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AI6" t="s" s="476">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AJ6" t="s" s="476">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK6" t="s" s="476">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AL6" t="s" s="476">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AM6" t="s" s="477">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AN6" t="s" s="476">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AO6" t="s" s="476">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AP6" t="s" s="476">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AQ6" t="s" s="477">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AR6" t="s" s="478">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AS6" t="s" s="478">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AT6" t="s" s="478">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AU6" t="s" s="478">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7">
@@ -2154,19 +2157,19 @@
         <v>8832.0</v>
       </c>
       <c r="B7" t="s" s="478">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s" s="478">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D7" t="n" s="478">
         <v>41463.0</v>
       </c>
       <c r="E7" t="s" s="478">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F7" t="s" s="478">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G7" t="s" s="478">
         <v>54</v>
@@ -2175,121 +2178,121 @@
         <v>55</v>
       </c>
       <c r="I7" t="s" s="474">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J7" t="s" s="474">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K7" t="s" s="474">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L7" t="s" s="474">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M7" t="s" s="474">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N7" t="s" s="474">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O7" t="s" s="474">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P7" t="s" s="474">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q7" t="s" s="474">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R7" t="s" s="477">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S7" t="s" s="476">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T7" t="s" s="476">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U7" t="s" s="476">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V7" t="s" s="476">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W7" t="s" s="476">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="X7" t="s" s="476">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y7" t="s" s="476">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Z7" t="s" s="476">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AA7" t="s" s="476">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AB7" t="s" s="476">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AC7" t="s" s="476">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AD7" t="s" s="476">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AE7" t="s" s="476">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AF7" t="s" s="476">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG7" t="s" s="476">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AH7" t="s" s="476">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AI7" t="s" s="476">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AJ7" t="s" s="476">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK7" t="s" s="476">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AL7" t="s" s="476">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AM7" t="s" s="477">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AN7" t="s" s="476">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AO7" t="s" s="476">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AP7" t="s" s="476">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AQ7" t="s" s="477">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AR7" t="s" s="478">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AS7" t="s" s="478">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AT7" t="s" s="478">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AU7" t="s" s="478">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8">
@@ -2297,19 +2300,19 @@
         <v>8833.0</v>
       </c>
       <c r="B8" t="s" s="478">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s" s="478">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D8" t="n" s="478">
         <v>36715.0</v>
       </c>
       <c r="E8" t="s" s="478">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F8" t="s" s="478">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G8" t="s" s="478">
         <v>54</v>
@@ -2318,121 +2321,121 @@
         <v>55</v>
       </c>
       <c r="I8" t="s" s="474">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J8" t="s" s="474">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K8" t="s" s="474">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L8" t="s" s="474">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M8" t="s" s="474">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N8" t="s" s="474">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O8" t="s" s="474">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P8" t="s" s="474">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q8" t="s" s="474">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R8" t="s" s="477">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S8" t="s" s="476">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T8" t="s" s="476">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U8" t="s" s="476">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V8" t="s" s="476">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W8" t="s" s="476">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="X8" t="s" s="476">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y8" t="s" s="476">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Z8" t="s" s="476">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AA8" t="s" s="476">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AB8" t="s" s="476">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AC8" t="s" s="476">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AD8" t="s" s="476">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AE8" t="s" s="476">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AF8" t="s" s="476">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG8" t="s" s="476">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AH8" t="s" s="476">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AI8" t="s" s="476">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AJ8" t="s" s="476">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK8" t="s" s="476">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AL8" t="s" s="476">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AM8" t="s" s="477">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AN8" t="s" s="476">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AO8" t="s" s="476">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AP8" t="s" s="476">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AQ8" t="s" s="477">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AR8" t="s" s="478">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AS8" t="s" s="478">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AT8" t="s" s="478">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AU8" t="s" s="478">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9">
@@ -2440,19 +2443,19 @@
         <v>31091.0</v>
       </c>
       <c r="B9" t="s" s="478">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s" s="478">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D9" t="n" s="478">
         <v>44852.0</v>
       </c>
       <c r="E9" t="s" s="478">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F9" t="s" s="478">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G9" t="s" s="478">
         <v>54</v>
@@ -2461,121 +2464,121 @@
         <v>55</v>
       </c>
       <c r="I9" t="s" s="474">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J9" t="s" s="474">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K9" t="s" s="474">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L9" t="s" s="474">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M9" t="s" s="474">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N9" t="s" s="474">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O9" t="s" s="474">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P9" t="s" s="474">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q9" t="s" s="474">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R9" t="s" s="477">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S9" t="s" s="476">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T9" t="s" s="476">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U9" t="s" s="476">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V9" t="s" s="476">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W9" t="s" s="476">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="X9" t="s" s="476">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y9" t="s" s="476">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Z9" t="s" s="476">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AA9" t="s" s="476">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AB9" t="s" s="476">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AC9" t="s" s="476">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AD9" t="s" s="476">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AE9" t="s" s="476">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AF9" t="s" s="476">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG9" t="s" s="476">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AH9" t="s" s="476">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AI9" t="s" s="476">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AJ9" t="s" s="476">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK9" t="s" s="476">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AL9" t="s" s="476">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AM9" t="s" s="477">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AN9" t="s" s="476">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AO9" t="s" s="476">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AP9" t="s" s="476">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AQ9" t="s" s="477">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AR9" t="s" s="478">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AS9" t="s" s="478">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AT9" t="s" s="478">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AU9" t="s" s="478">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
